--- a/POI/Points_Terminal.xlsx
+++ b/POI/Points_Terminal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\Skripsi\Data\ArcGIS\git\aoi\POI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9310B5-82AA-41D5-B50E-495CE8B31E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF777D21-DC94-451C-B87D-32C003EC3708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="574">
   <si>
     <t>objectid</t>
   </si>
@@ -1742,15 +1742,19 @@
   </si>
   <si>
     <t>Satui Bunati</t>
+  </si>
+  <si>
+    <t>Terminal Multipurpose - Labuan Bajo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1790,11 +1794,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2101,12 +2106,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
       <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
     <col min="8" max="8" width="45.6640625" customWidth="1"/>
@@ -8361,7 +8367,48 @@
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C144" s="1"/>
+      <c r="A144">
+        <v>621</v>
+      </c>
+      <c r="B144" s="4">
+        <v>-8.4620847579484195</v>
+      </c>
+      <c r="C144" s="1">
+        <v>119.921630946208</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E144" t="s">
+        <v>339</v>
+      </c>
+      <c r="F144" t="s">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" t="s">
+        <v>340</v>
+      </c>
+      <c r="I144" t="s">
+        <v>318</v>
+      </c>
+      <c r="J144" t="s">
+        <v>341</v>
+      </c>
+      <c r="K144">
+        <v>53</v>
+      </c>
+      <c r="L144">
+        <v>53.15</v>
+      </c>
+      <c r="M144" t="s">
+        <v>22</v>
+      </c>
+      <c r="N144" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/POI/Points_Terminal.xlsx
+++ b/POI/Points_Terminal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\Skripsi\Data\ArcGIS\git\aoi\POI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF777D21-DC94-451C-B87D-32C003EC3708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B036EE-7C40-4436-9648-EB35FB9CD23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="578">
   <si>
     <t>objectid</t>
   </si>
@@ -1745,6 +1745,18 @@
   </si>
   <si>
     <t>Terminal Multipurpose - Labuan Bajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapudi   </t>
+  </si>
+  <si>
+    <t>ISG</t>
+  </si>
+  <si>
+    <t>Jl. Pelabuhan No. 1 Gawam Sapudi Kab. Sumenep Madura Jawa Timur 69483</t>
+  </si>
+  <si>
+    <t>Operasi</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1766,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -1794,12 +1806,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2104,25 +2117,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N144"/>
+  <dimension ref="A1:BH145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="H145" sqref="H145"/>
+    <sheetView tabSelected="1" topLeftCell="G89" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="8" max="8" width="45.6640625" customWidth="1"/>
+    <col min="8" max="8" width="45.7109375" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="13" max="13" width="39.88671875" customWidth="1"/>
-    <col min="14" max="14" width="24.6640625" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.85546875" customWidth="1"/>
+    <col min="14" max="14" width="24.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2166,7 +2179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2210,7 +2223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
@@ -2254,7 +2267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -2298,7 +2311,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -2342,7 +2355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2386,7 +2399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13</v>
       </c>
@@ -2430,7 +2443,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2474,7 +2487,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>31</v>
       </c>
@@ -2518,7 +2531,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21</v>
       </c>
@@ -2562,7 +2575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18</v>
       </c>
@@ -2606,7 +2619,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>35</v>
       </c>
@@ -2650,7 +2663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>29</v>
       </c>
@@ -2694,7 +2707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>19</v>
       </c>
@@ -2738,7 +2751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25</v>
       </c>
@@ -2782,7 +2795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>33</v>
       </c>
@@ -2826,7 +2839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>38</v>
       </c>
@@ -2870,7 +2883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>32</v>
       </c>
@@ -2914,7 +2927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>36</v>
       </c>
@@ -2958,7 +2971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>34</v>
       </c>
@@ -3002,7 +3015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>24</v>
       </c>
@@ -3046,7 +3059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>48</v>
       </c>
@@ -3090,7 +3103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>47</v>
       </c>
@@ -3134,7 +3147,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>91</v>
       </c>
@@ -3178,7 +3191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>79</v>
       </c>
@@ -3222,7 +3235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>82</v>
       </c>
@@ -3266,7 +3279,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>83</v>
       </c>
@@ -3310,7 +3323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>89</v>
       </c>
@@ -3354,7 +3367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>87</v>
       </c>
@@ -3398,7 +3411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>88</v>
       </c>
@@ -3442,7 +3455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>85</v>
       </c>
@@ -3486,7 +3499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>81</v>
       </c>
@@ -3530,7 +3543,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>86</v>
       </c>
@@ -3574,7 +3587,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>103</v>
       </c>
@@ -3618,7 +3631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>100</v>
       </c>
@@ -3662,7 +3675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>111</v>
       </c>
@@ -3706,7 +3719,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>106</v>
       </c>
@@ -3750,7 +3763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>96</v>
       </c>
@@ -3794,7 +3807,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>126</v>
       </c>
@@ -3838,7 +3851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>121</v>
       </c>
@@ -3882,7 +3895,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>113</v>
       </c>
@@ -3926,7 +3939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>114</v>
       </c>
@@ -3970,7 +3983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>120</v>
       </c>
@@ -4014,7 +4027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>118</v>
       </c>
@@ -4058,7 +4071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>52</v>
       </c>
@@ -4102,7 +4115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>54</v>
       </c>
@@ -4146,7 +4159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>59</v>
       </c>
@@ -4190,7 +4203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>60</v>
       </c>
@@ -4234,7 +4247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>75</v>
       </c>
@@ -4278,7 +4291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>146</v>
       </c>
@@ -4322,7 +4335,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>150</v>
       </c>
@@ -4366,7 +4379,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>139</v>
       </c>
@@ -4410,7 +4423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>141</v>
       </c>
@@ -4454,7 +4467,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>143</v>
       </c>
@@ -4498,7 +4511,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>164</v>
       </c>
@@ -4542,7 +4555,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>154</v>
       </c>
@@ -4586,7 +4599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>169</v>
       </c>
@@ -4630,7 +4643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>171</v>
       </c>
@@ -4674,7 +4687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>185</v>
       </c>
@@ -4718,7 +4731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>177</v>
       </c>
@@ -4762,7 +4775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>178</v>
       </c>
@@ -4806,7 +4819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>192</v>
       </c>
@@ -4850,7 +4863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>132</v>
       </c>
@@ -4894,7 +4907,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>195</v>
       </c>
@@ -4938,7 +4951,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>194</v>
       </c>
@@ -4982,7 +4995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>211</v>
       </c>
@@ -5026,7 +5039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>200</v>
       </c>
@@ -5070,7 +5083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>205</v>
       </c>
@@ -5114,7 +5127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>218</v>
       </c>
@@ -5158,7 +5171,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>219</v>
       </c>
@@ -5202,7 +5215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>214</v>
       </c>
@@ -5246,7 +5259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>238</v>
       </c>
@@ -5290,7 +5303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>252</v>
       </c>
@@ -5334,7 +5347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>236</v>
       </c>
@@ -5378,7 +5391,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>249</v>
       </c>
@@ -5422,7 +5435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>230</v>
       </c>
@@ -5466,7 +5479,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>258</v>
       </c>
@@ -5510,7 +5523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>269</v>
       </c>
@@ -5554,7 +5567,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>270</v>
       </c>
@@ -5598,7 +5611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>284</v>
       </c>
@@ -5642,7 +5655,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>278</v>
       </c>
@@ -5686,7 +5699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>279</v>
       </c>
@@ -5730,7 +5743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>277</v>
       </c>
@@ -5774,7 +5787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>283</v>
       </c>
@@ -5818,7 +5831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>280</v>
       </c>
@@ -5862,7 +5875,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>281</v>
       </c>
@@ -5906,7 +5919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>286</v>
       </c>
@@ -5950,7 +5963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>294</v>
       </c>
@@ -5994,7 +6007,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>301</v>
       </c>
@@ -6038,7 +6051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>304</v>
       </c>
@@ -6082,7 +6095,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>307</v>
       </c>
@@ -6126,7 +6139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>312</v>
       </c>
@@ -6170,7 +6183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>313</v>
       </c>
@@ -6214,7 +6227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>308</v>
       </c>
@@ -6258,7 +6271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>306</v>
       </c>
@@ -6302,7 +6315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>290</v>
       </c>
@@ -6346,7 +6359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>293</v>
       </c>
@@ -6390,7 +6403,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>317</v>
       </c>
@@ -6434,7 +6447,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>352</v>
       </c>
@@ -6478,7 +6491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>375</v>
       </c>
@@ -6522,7 +6535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>379</v>
       </c>
@@ -6566,7 +6579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>373</v>
       </c>
@@ -6610,7 +6623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>386</v>
       </c>
@@ -6654,7 +6667,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>398</v>
       </c>
@@ -6698,7 +6711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>381</v>
       </c>
@@ -6742,7 +6755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>431</v>
       </c>
@@ -6786,7 +6799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>440</v>
       </c>
@@ -6830,7 +6843,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>447</v>
       </c>
@@ -6874,7 +6887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>450</v>
       </c>
@@ -6918,7 +6931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>400</v>
       </c>
@@ -6962,7 +6975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>415</v>
       </c>
@@ -7006,7 +7019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>416</v>
       </c>
@@ -7050,7 +7063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>359</v>
       </c>
@@ -7094,7 +7107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>358</v>
       </c>
@@ -7138,7 +7151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>367</v>
       </c>
@@ -7182,7 +7195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>520</v>
       </c>
@@ -7226,7 +7239,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>558</v>
       </c>
@@ -7270,7 +7283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>525</v>
       </c>
@@ -7314,7 +7327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>523</v>
       </c>
@@ -7358,7 +7371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>567</v>
       </c>
@@ -7402,7 +7415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>585</v>
       </c>
@@ -7446,7 +7459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>506</v>
       </c>
@@ -7490,7 +7503,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>473</v>
       </c>
@@ -7534,7 +7547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>516</v>
       </c>
@@ -7578,7 +7591,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>512</v>
       </c>
@@ -7622,7 +7635,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>496</v>
       </c>
@@ -7666,7 +7679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>614</v>
       </c>
@@ -7710,7 +7723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>621</v>
       </c>
@@ -7754,7 +7767,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>625</v>
       </c>
@@ -7798,7 +7811,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>628</v>
       </c>
@@ -7842,7 +7855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>588</v>
       </c>
@@ -7886,7 +7899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>591</v>
       </c>
@@ -7930,7 +7943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>603</v>
       </c>
@@ -7974,7 +7987,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>611</v>
       </c>
@@ -8018,7 +8031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>612</v>
       </c>
@@ -8050,7 +8063,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>613</v>
       </c>
@@ -8082,7 +8095,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>614</v>
       </c>
@@ -8114,7 +8127,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>615</v>
       </c>
@@ -8146,7 +8159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>616</v>
       </c>
@@ -8190,7 +8203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>617</v>
       </c>
@@ -8234,7 +8247,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>618</v>
       </c>
@@ -8278,7 +8291,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>619</v>
       </c>
@@ -8322,7 +8335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>620</v>
       </c>
@@ -8366,7 +8379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>621</v>
       </c>
@@ -8409,6 +8422,99 @@
       <c r="N144" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="145" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A145" s="5">
+        <v>187</v>
+      </c>
+      <c r="B145" s="5">
+        <v>-7.1704711999999997</v>
+      </c>
+      <c r="C145" s="5">
+        <v>114.3265991</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="I145" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="J145" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="K145" s="5">
+        <v>35</v>
+      </c>
+      <c r="L145" s="5">
+        <v>35.29</v>
+      </c>
+      <c r="M145" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N145" t="s">
+        <v>26</v>
+      </c>
+      <c r="R145" s="5"/>
+      <c r="S145" s="5"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5"/>
+      <c r="V145" s="5"/>
+      <c r="W145" s="5"/>
+      <c r="X145" s="5"/>
+      <c r="Y145" s="5"/>
+      <c r="Z145" s="5"/>
+      <c r="AA145" s="5"/>
+      <c r="AB145" s="5"/>
+      <c r="AC145" s="5"/>
+      <c r="AD145" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="AE145" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF145" s="5"/>
+      <c r="AG145" s="5"/>
+      <c r="AH145" s="5"/>
+      <c r="AI145" s="5"/>
+      <c r="AJ145" s="5"/>
+      <c r="AK145" s="5"/>
+      <c r="AL145" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM145" s="5"/>
+      <c r="AN145" s="5"/>
+      <c r="AO145" s="5"/>
+      <c r="AP145" s="5"/>
+      <c r="AQ145" s="5"/>
+      <c r="AR145" s="5"/>
+      <c r="AS145" s="5"/>
+      <c r="AT145" s="5"/>
+      <c r="AU145" s="5"/>
+      <c r="AV145" s="5"/>
+      <c r="AW145" s="5"/>
+      <c r="AX145" s="5"/>
+      <c r="AY145" s="5"/>
+      <c r="AZ145" s="5"/>
+      <c r="BA145" s="5"/>
+      <c r="BB145" s="5"/>
+      <c r="BC145" s="5"/>
+      <c r="BD145" s="5"/>
+      <c r="BE145" s="5"/>
+      <c r="BF145" s="5"/>
+      <c r="BG145" s="5"/>
+      <c r="BH145" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/POI/Points_Terminal.xlsx
+++ b/POI/Points_Terminal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\Skripsi\Data\ArcGIS\git\aoi\POI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B036EE-7C40-4436-9648-EB35FB9CD23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548D98A2-F495-46E1-AF88-A89D813E163C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1806,13 +1806,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2117,10 +2116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BH145"/>
+  <dimension ref="A1:AL145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G89" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+    <sheetView tabSelected="1" topLeftCell="E140" workbookViewId="0">
+      <selection activeCell="J147" sqref="J147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8423,98 +8422,58 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A145" s="5">
+    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A145">
         <v>187</v>
       </c>
-      <c r="B145" s="5">
+      <c r="B145">
         <v>-7.1704711999999997</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C145">
         <v>114.3265991</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145" t="s">
         <v>574</v>
       </c>
-      <c r="E145" s="5" t="s">
+      <c r="E145" t="s">
         <v>575</v>
       </c>
-      <c r="F145" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H145" s="5" t="s">
+      <c r="F145" t="s">
+        <v>16</v>
+      </c>
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" t="s">
         <v>576</v>
       </c>
-      <c r="I145" s="5" t="s">
+      <c r="I145" t="s">
         <v>272</v>
       </c>
-      <c r="J145" s="5" t="s">
+      <c r="J145" t="s">
         <v>291</v>
       </c>
-      <c r="K145" s="5">
+      <c r="K145">
         <v>35</v>
       </c>
-      <c r="L145" s="5">
+      <c r="L145">
         <v>35.29</v>
       </c>
-      <c r="M145" s="5" t="s">
+      <c r="M145" t="s">
         <v>25</v>
       </c>
       <c r="N145" t="s">
         <v>26</v>
       </c>
-      <c r="R145" s="5"/>
-      <c r="S145" s="5"/>
-      <c r="T145" s="5"/>
-      <c r="U145" s="5"/>
-      <c r="V145" s="5"/>
-      <c r="W145" s="5"/>
-      <c r="X145" s="5"/>
-      <c r="Y145" s="5"/>
-      <c r="Z145" s="5"/>
-      <c r="AA145" s="5"/>
-      <c r="AB145" s="5"/>
-      <c r="AC145" s="5"/>
-      <c r="AD145" s="5" t="s">
+      <c r="AD145" t="s">
         <v>577</v>
       </c>
-      <c r="AE145" s="5">
+      <c r="AE145">
         <v>1</v>
       </c>
-      <c r="AF145" s="5"/>
-      <c r="AG145" s="5"/>
-      <c r="AH145" s="5"/>
-      <c r="AI145" s="5"/>
-      <c r="AJ145" s="5"/>
-      <c r="AK145" s="5"/>
-      <c r="AL145" s="5" t="s">
+      <c r="AL145" t="s">
         <v>21</v>
       </c>
-      <c r="AM145" s="5"/>
-      <c r="AN145" s="5"/>
-      <c r="AO145" s="5"/>
-      <c r="AP145" s="5"/>
-      <c r="AQ145" s="5"/>
-      <c r="AR145" s="5"/>
-      <c r="AS145" s="5"/>
-      <c r="AT145" s="5"/>
-      <c r="AU145" s="5"/>
-      <c r="AV145" s="5"/>
-      <c r="AW145" s="5"/>
-      <c r="AX145" s="5"/>
-      <c r="AY145" s="5"/>
-      <c r="AZ145" s="5"/>
-      <c r="BA145" s="5"/>
-      <c r="BB145" s="5"/>
-      <c r="BC145" s="5"/>
-      <c r="BD145" s="5"/>
-      <c r="BE145" s="5"/>
-      <c r="BF145" s="5"/>
-      <c r="BG145" s="5"/>
-      <c r="BH145" s="5"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/POI/Points_Terminal.xlsx
+++ b/POI/Points_Terminal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\Skripsi\Data\ArcGIS\git\aoi\POI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{548D98A2-F495-46E1-AF88-A89D813E163C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2372314-00EB-4A1A-8B7F-01D5ABF8427D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2118,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E140" workbookViewId="0">
-      <selection activeCell="J147" sqref="J147"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4427,10 +4427,10 @@
         <v>141</v>
       </c>
       <c r="B53">
-        <v>-7.6846924000000003</v>
+        <v>-7.71481460046392</v>
       </c>
       <c r="C53">
-        <v>108.6748047</v>
+        <v>108.505823838121</v>
       </c>
       <c r="D53" t="s">
         <v>249</v>
@@ -7551,10 +7551,10 @@
         <v>516</v>
       </c>
       <c r="B124">
-        <v>-0.69091800000000003</v>
+        <v>-0.67929510461048603</v>
       </c>
       <c r="C124">
-        <v>127.45599369999999</v>
+        <v>127.455288546256</v>
       </c>
       <c r="D124" t="s">
         <v>508</v>
@@ -7595,10 +7595,10 @@
         <v>512</v>
       </c>
       <c r="B125">
-        <v>-0.76129150000000001</v>
+        <v>-0.77983527212825698</v>
       </c>
       <c r="C125">
-        <v>127.4484253</v>
+        <v>127.387729534337</v>
       </c>
       <c r="D125" t="s">
         <v>506</v>

--- a/POI/Points_Terminal.xlsx
+++ b/POI/Points_Terminal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\Skripsi\Data\ArcGIS\git\aoi\POI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2372314-00EB-4A1A-8B7F-01D5ABF8427D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C821AA-AE04-47FD-8788-91B6F27BBC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="579">
   <si>
     <t>objectid</t>
   </si>
@@ -1757,6 +1757,9 @@
   </si>
   <si>
     <t>Operasi</t>
+  </si>
+  <si>
+    <t>0,47277010644632833, 117.60404298721919</t>
   </si>
 </sst>
 </file>
@@ -2118,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6142,11 +6145,11 @@
       <c r="A92">
         <v>312</v>
       </c>
-      <c r="B92">
-        <v>0.53553119999999999</v>
+      <c r="B92" t="s">
+        <v>578</v>
       </c>
       <c r="C92">
-        <v>117.6442007</v>
+        <v>117.604042987219</v>
       </c>
       <c r="D92" t="s">
         <v>415</v>

--- a/POI/Points_Terminal.xlsx
+++ b/POI/Points_Terminal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\Skripsi\Data\ArcGIS\git\aoi\POI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C821AA-AE04-47FD-8788-91B6F27BBC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAD0A23-CD47-4D87-B1DF-A15BEC621F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="578">
   <si>
     <t>objectid</t>
   </si>
@@ -1757,9 +1757,6 @@
   </si>
   <si>
     <t>Operasi</t>
-  </si>
-  <si>
-    <t>0,47277010644632833, 117.60404298721919</t>
   </si>
 </sst>
 </file>
@@ -2122,7 +2119,7 @@
   <dimension ref="A1:AL145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6145,8 +6142,8 @@
       <c r="A92">
         <v>312</v>
       </c>
-      <c r="B92" t="s">
-        <v>578</v>
+      <c r="B92">
+        <v>0.472770106446328</v>
       </c>
       <c r="C92">
         <v>117.604042987219</v>

--- a/POI/Points_Terminal.xlsx
+++ b/POI/Points_Terminal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\Skripsi\Data\ArcGIS\git\aoi\POI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAD0A23-CD47-4D87-B1DF-A15BEC621F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C116D6-8AC8-40DF-9E9E-0E887B36D4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -2118,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7551,10 +7551,10 @@
         <v>516</v>
       </c>
       <c r="B124">
-        <v>-0.67929510461048603</v>
+        <v>0.67931051433394996</v>
       </c>
       <c r="C124">
-        <v>127.455288546256</v>
+        <v>127.455180734322</v>
       </c>
       <c r="D124" t="s">
         <v>508</v>
@@ -7595,10 +7595,10 @@
         <v>512</v>
       </c>
       <c r="B125">
-        <v>-0.77983527212825698</v>
+        <v>0.77962905749885403</v>
       </c>
       <c r="C125">
-        <v>127.387729534337</v>
+        <v>127.387633994149</v>
       </c>
       <c r="D125" t="s">
         <v>506</v>

--- a/POI/Points_Terminal.xlsx
+++ b/POI/Points_Terminal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 7\Skripsi\Data\ArcGIS\git\aoi\POI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C116D6-8AC8-40DF-9E9E-0E887B36D4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC9D876-F19D-402A-B4EE-7A5DAD917BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="582">
   <si>
     <t>objectid</t>
   </si>
@@ -1757,6 +1757,18 @@
   </si>
   <si>
     <t>Operasi</t>
+  </si>
+  <si>
+    <t>BIT</t>
+  </si>
+  <si>
+    <t>Jl. Ir. Soekarno No. 4 Bitung Sulawesi Utara 95225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitung  </t>
+  </si>
+  <si>
+    <t>Bitung</t>
   </si>
 </sst>
 </file>
@@ -2116,25 +2128,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL145"/>
+  <dimension ref="A1:AL146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="8" max="8" width="45.7109375" customWidth="1"/>
+    <col min="8" max="8" width="45.6640625" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="13" max="13" width="39.85546875" customWidth="1"/>
-    <col min="14" max="14" width="24.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.88671875" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2178,7 +2190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -2222,7 +2234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11</v>
       </c>
@@ -2266,7 +2278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9</v>
       </c>
@@ -2310,7 +2322,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -2354,7 +2366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2398,7 +2410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>13</v>
       </c>
@@ -2442,7 +2454,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2486,7 +2498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>31</v>
       </c>
@@ -2530,7 +2542,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>21</v>
       </c>
@@ -2574,7 +2586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>18</v>
       </c>
@@ -2618,7 +2630,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>35</v>
       </c>
@@ -2662,7 +2674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>29</v>
       </c>
@@ -2706,7 +2718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>19</v>
       </c>
@@ -2750,7 +2762,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25</v>
       </c>
@@ -2794,7 +2806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>33</v>
       </c>
@@ -2838,7 +2850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>38</v>
       </c>
@@ -2882,7 +2894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>32</v>
       </c>
@@ -2926,7 +2938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>36</v>
       </c>
@@ -2970,7 +2982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>34</v>
       </c>
@@ -3014,7 +3026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>24</v>
       </c>
@@ -3058,7 +3070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>48</v>
       </c>
@@ -3102,7 +3114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>47</v>
       </c>
@@ -3146,7 +3158,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>91</v>
       </c>
@@ -3190,7 +3202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>79</v>
       </c>
@@ -3234,7 +3246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>82</v>
       </c>
@@ -3278,7 +3290,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>83</v>
       </c>
@@ -3322,7 +3334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>89</v>
       </c>
@@ -3366,7 +3378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>87</v>
       </c>
@@ -3410,7 +3422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>88</v>
       </c>
@@ -3454,7 +3466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>85</v>
       </c>
@@ -3498,7 +3510,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>81</v>
       </c>
@@ -3542,7 +3554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>86</v>
       </c>
@@ -3586,7 +3598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>103</v>
       </c>
@@ -3630,7 +3642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>100</v>
       </c>
@@ -3674,7 +3686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>111</v>
       </c>
@@ -3718,7 +3730,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>106</v>
       </c>
@@ -3762,7 +3774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>96</v>
       </c>
@@ -3806,7 +3818,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>126</v>
       </c>
@@ -3850,7 +3862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>121</v>
       </c>
@@ -3894,7 +3906,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>113</v>
       </c>
@@ -3938,7 +3950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>114</v>
       </c>
@@ -3982,7 +3994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>120</v>
       </c>
@@ -4026,7 +4038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>118</v>
       </c>
@@ -4070,7 +4082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>52</v>
       </c>
@@ -4114,7 +4126,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>54</v>
       </c>
@@ -4158,7 +4170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>59</v>
       </c>
@@ -4202,7 +4214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>60</v>
       </c>
@@ -4246,7 +4258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>75</v>
       </c>
@@ -4290,7 +4302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>146</v>
       </c>
@@ -4334,7 +4346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>150</v>
       </c>
@@ -4378,7 +4390,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>139</v>
       </c>
@@ -4422,7 +4434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>141</v>
       </c>
@@ -4466,7 +4478,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>143</v>
       </c>
@@ -4510,7 +4522,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>164</v>
       </c>
@@ -4554,7 +4566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>154</v>
       </c>
@@ -4598,7 +4610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>169</v>
       </c>
@@ -4642,7 +4654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>171</v>
       </c>
@@ -4686,7 +4698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>185</v>
       </c>
@@ -4730,7 +4742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>177</v>
       </c>
@@ -4774,7 +4786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>178</v>
       </c>
@@ -4818,7 +4830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>192</v>
       </c>
@@ -4862,7 +4874,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>132</v>
       </c>
@@ -4906,7 +4918,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>195</v>
       </c>
@@ -4950,7 +4962,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>194</v>
       </c>
@@ -4994,7 +5006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>211</v>
       </c>
@@ -5038,7 +5050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>200</v>
       </c>
@@ -5082,7 +5094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>205</v>
       </c>
@@ -5126,7 +5138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>218</v>
       </c>
@@ -5170,7 +5182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>219</v>
       </c>
@@ -5214,7 +5226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>214</v>
       </c>
@@ -5258,7 +5270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>238</v>
       </c>
@@ -5302,7 +5314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>252</v>
       </c>
@@ -5346,7 +5358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>236</v>
       </c>
@@ -5390,7 +5402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>249</v>
       </c>
@@ -5434,7 +5446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>230</v>
       </c>
@@ -5478,7 +5490,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>258</v>
       </c>
@@ -5522,7 +5534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>269</v>
       </c>
@@ -5566,7 +5578,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>270</v>
       </c>
@@ -5610,7 +5622,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>284</v>
       </c>
@@ -5654,7 +5666,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>278</v>
       </c>
@@ -5698,7 +5710,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>279</v>
       </c>
@@ -5742,7 +5754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>277</v>
       </c>
@@ -5786,7 +5798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>283</v>
       </c>
@@ -5830,7 +5842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>280</v>
       </c>
@@ -5874,7 +5886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>281</v>
       </c>
@@ -5918,7 +5930,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>286</v>
       </c>
@@ -5962,7 +5974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>294</v>
       </c>
@@ -6006,7 +6018,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>301</v>
       </c>
@@ -6050,7 +6062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>304</v>
       </c>
@@ -6094,7 +6106,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>307</v>
       </c>
@@ -6138,7 +6150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>312</v>
       </c>
@@ -6182,7 +6194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>313</v>
       </c>
@@ -6226,7 +6238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>308</v>
       </c>
@@ -6270,7 +6282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>306</v>
       </c>
@@ -6314,7 +6326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>290</v>
       </c>
@@ -6358,7 +6370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>293</v>
       </c>
@@ -6402,7 +6414,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>317</v>
       </c>
@@ -6446,7 +6458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>352</v>
       </c>
@@ -6490,7 +6502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>375</v>
       </c>
@@ -6534,7 +6546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>379</v>
       </c>
@@ -6578,7 +6590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>373</v>
       </c>
@@ -6622,7 +6634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>386</v>
       </c>
@@ -6666,7 +6678,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>398</v>
       </c>
@@ -6710,7 +6722,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>381</v>
       </c>
@@ -6754,7 +6766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>431</v>
       </c>
@@ -6798,7 +6810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>440</v>
       </c>
@@ -6842,7 +6854,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>447</v>
       </c>
@@ -6886,7 +6898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>450</v>
       </c>
@@ -6930,7 +6942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>400</v>
       </c>
@@ -6974,7 +6986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>415</v>
       </c>
@@ -7018,7 +7030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>416</v>
       </c>
@@ -7062,7 +7074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>359</v>
       </c>
@@ -7106,7 +7118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>358</v>
       </c>
@@ -7150,7 +7162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>367</v>
       </c>
@@ -7194,7 +7206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>520</v>
       </c>
@@ -7238,7 +7250,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>558</v>
       </c>
@@ -7282,7 +7294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>525</v>
       </c>
@@ -7326,7 +7338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>523</v>
       </c>
@@ -7370,7 +7382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>567</v>
       </c>
@@ -7414,7 +7426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>585</v>
       </c>
@@ -7458,7 +7470,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>506</v>
       </c>
@@ -7502,7 +7514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>473</v>
       </c>
@@ -7546,7 +7558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>516</v>
       </c>
@@ -7590,7 +7602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>512</v>
       </c>
@@ -7634,7 +7646,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>496</v>
       </c>
@@ -7678,7 +7690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>614</v>
       </c>
@@ -7722,7 +7734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>621</v>
       </c>
@@ -7766,7 +7778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>625</v>
       </c>
@@ -7810,7 +7822,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>628</v>
       </c>
@@ -7854,7 +7866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>588</v>
       </c>
@@ -7898,7 +7910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>591</v>
       </c>
@@ -7942,7 +7954,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>603</v>
       </c>
@@ -7986,7 +7998,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>611</v>
       </c>
@@ -8030,7 +8042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>612</v>
       </c>
@@ -8062,7 +8074,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>613</v>
       </c>
@@ -8094,7 +8106,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>614</v>
       </c>
@@ -8126,7 +8138,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>615</v>
       </c>
@@ -8158,7 +8170,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>616</v>
       </c>
@@ -8202,7 +8214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>617</v>
       </c>
@@ -8246,7 +8258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>618</v>
       </c>
@@ -8290,7 +8302,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>619</v>
       </c>
@@ -8334,7 +8346,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>620</v>
       </c>
@@ -8378,7 +8390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>621</v>
       </c>
@@ -8422,7 +8434,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>187</v>
       </c>
@@ -8473,6 +8485,50 @@
       </c>
       <c r="AL145" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="146" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>135</v>
+      </c>
+      <c r="B146">
+        <v>1.4390259000000001</v>
+      </c>
+      <c r="C146">
+        <v>125.1948242</v>
+      </c>
+      <c r="D146" t="s">
+        <v>581</v>
+      </c>
+      <c r="E146" t="s">
+        <v>578</v>
+      </c>
+      <c r="F146" t="s">
+        <v>16</v>
+      </c>
+      <c r="G146" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" t="s">
+        <v>579</v>
+      </c>
+      <c r="I146" t="s">
+        <v>28</v>
+      </c>
+      <c r="J146" t="s">
+        <v>580</v>
+      </c>
+      <c r="K146">
+        <v>71</v>
+      </c>
+      <c r="L146">
+        <v>71.72</v>
+      </c>
+      <c r="M146" t="s">
+        <v>57</v>
+      </c>
+      <c r="N146" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
